--- a/storage/archivos/liquidadores.xlsx
+++ b/storage/archivos/liquidadores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nombre</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>LIA</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -858,64 +861,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
